--- a/data/trans_orig/P6901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{741D4D20-504D-4683-994B-17032E94A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F71C01-62D1-4F04-B4D1-52633E3EE711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7648563E-FC9D-4F86-8B81-171C134A5761}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{254566D2-BCEF-4B50-B462-663D7C9D7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1336 +77,1294 @@
     <t>82,31%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>72,19%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>69,93%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>30,07%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>29,4%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC692DD-21D5-4E6D-B70C-378D84CE9104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44376D3-522C-44CF-AC68-BA93E4363179}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3031,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB25AC3-3B69-45E9-8A5B-9F5758B934C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CBD83E-2895-4E42-9051-1D11F3B1154C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,10 +3271,10 @@
         <v>150</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3325,13 +3283,13 @@
         <v>52134</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3340,13 +3298,13 @@
         <v>118369</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3319,13 @@
         <v>20053</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3376,13 +3334,13 @@
         <v>13936</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3391,13 +3349,13 @@
         <v>33989</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3423,13 @@
         <v>68381</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3480,13 +3438,13 @@
         <v>57232</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -3495,13 +3453,13 @@
         <v>125613</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3474,13 @@
         <v>29495</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3531,13 +3489,13 @@
         <v>15399</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -3546,13 +3504,13 @@
         <v>44894</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3578,13 @@
         <v>69165</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3635,13 +3593,13 @@
         <v>26695</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3650,13 +3608,13 @@
         <v>95861</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3629,13 @@
         <v>21001</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3686,13 +3644,13 @@
         <v>13626</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -3701,13 +3659,13 @@
         <v>34626</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3733,13 @@
         <v>32070</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3790,10 +3748,10 @@
         <v>22523</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -3805,13 +3763,13 @@
         <v>54593</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3784,13 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3841,13 +3799,13 @@
         <v>2059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3856,13 +3814,13 @@
         <v>12886</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4025,13 @@
         <v>243376</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>152</v>
@@ -4082,13 +4040,13 @@
         <v>166663</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -4097,13 +4055,13 @@
         <v>410038</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4076,13 @@
         <v>84178</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -4133,13 +4091,13 @@
         <v>46998</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>124</v>
@@ -4148,13 +4106,13 @@
         <v>131176</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C61421E-363E-4C44-9ADE-8143C0CE25FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABCF54-D07A-4746-9543-66EAF1C5214A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4249,7 +4207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4314,13 @@
         <v>9275</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4371,10 +4329,10 @@
         <v>10811</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>108</v>
@@ -4386,13 +4344,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4365,13 @@
         <v>7876</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4422,13 +4380,13 @@
         <v>832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4437,13 +4395,13 @@
         <v>8708</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4469,13 @@
         <v>66705</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -4526,13 +4484,13 @@
         <v>42536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -4541,13 +4499,13 @@
         <v>109241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4520,13 @@
         <v>14867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4577,13 +4535,13 @@
         <v>3755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -4592,13 +4550,13 @@
         <v>18622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4624,13 @@
         <v>88363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4681,13 +4639,13 @@
         <v>59022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4696,13 +4654,13 @@
         <v>147385</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4675,13 @@
         <v>24760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4732,13 +4690,13 @@
         <v>12436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4747,13 +4705,13 @@
         <v>37196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4779,13 @@
         <v>60080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4836,13 +4794,13 @@
         <v>45021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4851,13 +4809,13 @@
         <v>105101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4830,13 @@
         <v>31348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4887,13 +4845,13 @@
         <v>11086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4902,13 +4860,13 @@
         <v>42434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4934,13 @@
         <v>35439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4991,13 +4949,13 @@
         <v>26366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -5006,13 +4964,13 @@
         <v>61804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +4985,13 @@
         <v>9409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5042,13 +5000,13 @@
         <v>4433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5057,13 +5015,13 @@
         <v>13842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5089,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>111</v>
@@ -5159,7 +5117,7 @@
         <v>934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
@@ -5180,7 +5138,7 @@
         <v>946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
@@ -5208,7 +5166,7 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>111</v>
@@ -5280,13 +5238,13 @@
         <v>260795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5295,13 +5253,13 @@
         <v>183756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>417</v>
@@ -5310,13 +5268,13 @@
         <v>444551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5289,13 @@
         <v>89206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5346,13 +5304,13 @@
         <v>32542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -5361,13 +5319,13 @@
         <v>121748</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91EA73D-AE33-4BC7-82D2-6EA6D35FC6FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E214977-E008-44E8-91A2-33B1D4204EA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5462,7 +5420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5572,7 +5530,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -5584,13 +5542,13 @@
         <v>11885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5599,13 +5557,13 @@
         <v>18283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +5584,7 @@
         <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5635,13 +5593,13 @@
         <v>5152</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5650,13 +5608,13 @@
         <v>5152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5682,13 @@
         <v>48357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5739,13 +5697,13 @@
         <v>35942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5754,13 +5712,13 @@
         <v>84300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5733,13 @@
         <v>10075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5790,13 +5748,13 @@
         <v>19955</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5805,13 +5763,13 @@
         <v>30029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5837,13 @@
         <v>75825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -5894,13 +5852,13 @@
         <v>64379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -5909,13 +5867,13 @@
         <v>140204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5888,13 @@
         <v>22915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -5945,13 +5903,13 @@
         <v>16671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -5960,13 +5918,13 @@
         <v>39586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +5992,13 @@
         <v>76525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -6049,13 +6007,13 @@
         <v>111619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -6064,13 +6022,13 @@
         <v>188146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6043,13 @@
         <v>38069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -6100,13 +6058,13 @@
         <v>32412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -6115,13 +6073,13 @@
         <v>70480</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6147,13 @@
         <v>48455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -6204,13 +6162,13 @@
         <v>49123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -6219,13 +6177,13 @@
         <v>97577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6198,13 @@
         <v>23308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6255,13 +6213,13 @@
         <v>10942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -6270,13 +6228,13 @@
         <v>34251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,10 +6302,10 @@
         <v>2289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>108</v>
@@ -6359,10 +6317,10 @@
         <v>2520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6374,10 +6332,10 @@
         <v>4809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>108</v>
@@ -6395,13 +6353,13 @@
         <v>801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6410,13 +6368,13 @@
         <v>611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6425,13 +6383,13 @@
         <v>1412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,10 +6460,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>374</v>
@@ -6514,13 +6472,13 @@
         <v>275468</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -6529,13 +6487,13 @@
         <v>533318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,10 +6511,10 @@
         <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -6565,13 +6523,13 @@
         <v>85743</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>190</v>
@@ -6580,13 +6538,13 @@
         <v>180910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F71C01-62D1-4F04-B4D1-52633E3EE711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB64735-27A3-4131-B45E-28195F8D69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{254566D2-BCEF-4B50-B462-663D7C9D7C84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6155F34E-DEFE-4214-91B2-E74D38C5AEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>82,31%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>17,69%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1132 +140,1162 @@
     <t>72,11%</t>
   </si>
   <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>21,83%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
   </si>
   <si>
     <t>45,1%</t>
@@ -1776,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44376D3-522C-44CF-AC68-BA93E4363179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036049E-FCEB-4E77-80F6-7024E704EE2E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2989,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CBD83E-2895-4E42-9051-1D11F3B1154C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE5FE33-A348-4508-A144-EA5AD4C834E3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,10 +3301,10 @@
         <v>150</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3283,13 +3313,13 @@
         <v>52134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3298,13 +3328,13 @@
         <v>118369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3349,13 @@
         <v>20053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3334,13 +3364,13 @@
         <v>13936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3349,13 +3379,13 @@
         <v>33989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3453,13 @@
         <v>68381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3438,13 +3468,13 @@
         <v>57232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -3453,13 +3483,13 @@
         <v>125613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3504,13 @@
         <v>29495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3489,13 +3519,13 @@
         <v>15399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -3504,13 +3534,13 @@
         <v>44894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3608,13 @@
         <v>69165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3593,13 +3623,13 @@
         <v>26695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3608,13 +3638,13 @@
         <v>95861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3659,13 @@
         <v>21001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3644,13 +3674,13 @@
         <v>13626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -3659,13 +3689,13 @@
         <v>34626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3763,13 @@
         <v>32070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3748,10 +3778,10 @@
         <v>22523</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -3763,13 +3793,13 @@
         <v>54593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3814,13 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3799,13 +3829,13 @@
         <v>2059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3814,13 +3844,13 @@
         <v>12886</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4055,13 @@
         <v>243376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>152</v>
@@ -4040,13 +4070,13 @@
         <v>166663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -4055,13 +4085,13 @@
         <v>410038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4106,13 @@
         <v>84178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -4091,13 +4121,13 @@
         <v>46998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>124</v>
@@ -4106,13 +4136,13 @@
         <v>131176</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABCF54-D07A-4746-9543-66EAF1C5214A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283869E-0E2A-4633-9292-384F44303D69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4207,7 +4237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4344,13 @@
         <v>9275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4329,10 +4359,10 @@
         <v>10811</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>108</v>
@@ -4344,13 +4374,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4395,13 @@
         <v>7876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4380,13 +4410,13 @@
         <v>832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4395,13 +4425,13 @@
         <v>8708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4499,13 @@
         <v>66705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -4484,13 +4514,13 @@
         <v>42536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -4499,13 +4529,13 @@
         <v>109241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4550,13 @@
         <v>14867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4535,13 +4565,13 @@
         <v>3755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -4550,13 +4580,13 @@
         <v>18622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4654,13 @@
         <v>88363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4639,13 +4669,13 @@
         <v>59022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4654,13 +4684,13 @@
         <v>147385</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4705,13 @@
         <v>24760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4690,13 +4720,13 @@
         <v>12436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4705,13 +4735,13 @@
         <v>37196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4809,13 @@
         <v>60080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4794,13 +4824,13 @@
         <v>45021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4809,13 +4839,13 @@
         <v>105101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4860,13 @@
         <v>31348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4845,13 +4875,13 @@
         <v>11086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4860,13 +4890,13 @@
         <v>42434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4964,13 @@
         <v>35439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4949,13 +4979,13 @@
         <v>26366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4964,13 +4994,13 @@
         <v>61804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5015,13 @@
         <v>9409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5000,13 +5030,13 @@
         <v>4433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5015,13 +5045,13 @@
         <v>13842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,7 +5119,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>111</v>
@@ -5117,7 +5147,7 @@
         <v>934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
@@ -5138,7 +5168,7 @@
         <v>946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
@@ -5166,7 +5196,7 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>111</v>
@@ -5238,13 +5268,13 @@
         <v>260795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5253,13 +5283,13 @@
         <v>183756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>417</v>
@@ -5268,13 +5298,13 @@
         <v>444551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5319,13 @@
         <v>89206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5304,13 +5334,13 @@
         <v>32542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -5319,13 +5349,13 @@
         <v>121748</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,7 +5433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E214977-E008-44E8-91A2-33B1D4204EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A01DF0B-5814-46A5-8B28-99430E85609A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,7 +5450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5530,7 +5560,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -5542,13 +5572,13 @@
         <v>11885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5557,13 +5587,13 @@
         <v>18283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,7 +5614,7 @@
         <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5593,13 +5623,13 @@
         <v>5152</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5608,13 +5638,13 @@
         <v>5152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5712,13 @@
         <v>48357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5697,13 +5727,13 @@
         <v>35942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5712,13 +5742,13 @@
         <v>84300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5763,13 @@
         <v>10075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5748,13 +5778,13 @@
         <v>19955</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5763,13 +5793,13 @@
         <v>30029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5867,13 @@
         <v>75825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -5852,13 +5882,13 @@
         <v>64379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -5867,13 +5897,13 @@
         <v>140204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5918,13 @@
         <v>22915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -5903,13 +5933,13 @@
         <v>16671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -5918,13 +5948,13 @@
         <v>39586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6022,13 @@
         <v>76525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -6007,13 +6037,13 @@
         <v>111619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -6022,13 +6052,13 @@
         <v>188146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6073,13 @@
         <v>38069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -6058,13 +6088,13 @@
         <v>32412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -6073,13 +6103,13 @@
         <v>70480</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6177,13 @@
         <v>48455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -6162,13 +6192,13 @@
         <v>49123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -6177,13 +6207,13 @@
         <v>97577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6228,13 @@
         <v>23308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6213,13 +6243,13 @@
         <v>10942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -6228,13 +6258,13 @@
         <v>34251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,10 +6332,10 @@
         <v>2289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>108</v>
@@ -6317,10 +6347,10 @@
         <v>2520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6332,10 +6362,10 @@
         <v>4809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>108</v>
@@ -6353,13 +6383,13 @@
         <v>801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6368,13 +6398,13 @@
         <v>611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6383,13 +6413,13 @@
         <v>1412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,10 +6490,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>374</v>
@@ -6472,13 +6502,13 @@
         <v>275468</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -6487,10 +6517,10 @@
         <v>533318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>117</v>
@@ -6511,10 +6541,10 @@
         <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -6523,13 +6553,13 @@
         <v>85743</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>190</v>
@@ -6538,13 +6568,13 @@
         <v>180910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB64735-27A3-4131-B45E-28195F8D69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D487FD50-B4DA-490B-82E1-330B851697C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6155F34E-DEFE-4214-91B2-E74D38C5AEBA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AADF21F8-486A-43DB-A0B3-F7C3EE6B5C70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>17,69%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>72,11%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>74,72%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>68,67%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>79,32%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>20,68%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>76,51%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,1012 +311,1030 @@
     <t>90,65%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>64,24%</t>
   </si>
   <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>73,13%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>32,51%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>72,75%</t>
   </si>
   <si>
-    <t>64,22%</t>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>33,22%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>35,78%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>74,09%</t>
@@ -1325,16 +1343,13 @@
     <t>11,71%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>40,82%</t>
+    <t>39,39%</t>
   </si>
   <si>
     <t>25,91%</t>
@@ -1343,58 +1358,55 @@
     <t>88,29%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>72,72%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>69,93%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>30,07%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>29,4%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036049E-FCEB-4E77-80F6-7024E704EE2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A585E-F91D-42E2-935F-5723C826C530}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3019,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE5FE33-A348-4508-A144-EA5AD4C834E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF3F358-9108-446D-BF12-32BF69C113A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4220,7 +4232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283869E-0E2A-4633-9292-384F44303D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6077C9D-C204-4FB8-B483-8B07479FE544}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4982,10 +4994,10 @@
         <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4994,13 +5006,13 @@
         <v>61804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5027,13 @@
         <v>9409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5030,13 +5042,13 @@
         <v>4433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5045,13 +5057,13 @@
         <v>13842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5131,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>111</v>
@@ -5147,7 +5159,7 @@
         <v>934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
@@ -5168,7 +5180,7 @@
         <v>946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
@@ -5196,7 +5208,7 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>111</v>
@@ -5268,13 +5280,13 @@
         <v>260795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5283,13 +5295,13 @@
         <v>183756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>417</v>
@@ -5298,13 +5310,13 @@
         <v>444551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5331,13 @@
         <v>89206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5334,13 +5346,13 @@
         <v>32542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -5349,13 +5361,13 @@
         <v>121748</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A01DF0B-5814-46A5-8B28-99430E85609A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B774E08D-2550-4493-A812-AB9CB582AC79}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5450,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5560,7 +5572,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -5575,10 +5587,10 @@
         <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5587,13 +5599,13 @@
         <v>18283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5626,7 @@
         <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5626,10 +5638,10 @@
         <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5638,13 +5650,13 @@
         <v>5152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5724,13 @@
         <v>48357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5727,13 +5739,13 @@
         <v>35942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5742,13 +5754,13 @@
         <v>84300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5775,13 @@
         <v>10075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5778,13 +5790,13 @@
         <v>19955</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5793,13 +5805,13 @@
         <v>30029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5879,13 @@
         <v>75825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -5882,13 +5894,13 @@
         <v>64379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -5897,13 +5909,13 @@
         <v>140204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5930,13 @@
         <v>22915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -5933,13 +5945,13 @@
         <v>16671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -5948,13 +5960,13 @@
         <v>39586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6034,13 @@
         <v>76525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -6037,13 +6049,13 @@
         <v>111619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -6052,13 +6064,13 @@
         <v>188146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6085,13 @@
         <v>38069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -6088,13 +6100,13 @@
         <v>32412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -6103,13 +6115,13 @@
         <v>70480</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6189,13 @@
         <v>48455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -6192,13 +6204,13 @@
         <v>49123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -6207,13 +6219,13 @@
         <v>97577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6240,13 @@
         <v>23308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6243,13 +6255,13 @@
         <v>10942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -6258,13 +6270,13 @@
         <v>34251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,10 +6344,10 @@
         <v>2289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>108</v>
@@ -6347,10 +6359,10 @@
         <v>2520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6362,10 +6374,10 @@
         <v>4809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>108</v>
@@ -6383,13 +6395,13 @@
         <v>801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6398,13 +6410,13 @@
         <v>611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6413,13 +6425,13 @@
         <v>1412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,10 +6502,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>374</v>
@@ -6502,13 +6514,13 @@
         <v>275468</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -6517,13 +6529,13 @@
         <v>533318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,10 +6553,10 @@
         <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -6553,13 +6565,13 @@
         <v>85743</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>190</v>
@@ -6568,13 +6580,13 @@
         <v>180910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D487FD50-B4DA-490B-82E1-330B851697C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0FA043-EBA9-449D-83C9-C858D98A1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AADF21F8-486A-43DB-A0B3-F7C3EE6B5C70}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CFA4F3E5-81F8-4D1E-9BEF-2BDDB5D96880}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="459">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>72,11%</t>
@@ -191,7 +191,7 @@
     <t>33,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>68,67%</t>
@@ -248,7 +248,7 @@
     <t>33,93%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>76,51%</t>
@@ -305,7 +305,7 @@
     <t>28,78%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>90,65%</t>
@@ -362,7 +362,13 @@
     <t>25,86%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -371,9 +377,6 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -1088,325 +1091,331 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
   </si>
   <si>
     <t>72,75%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +1827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A585E-F91D-42E2-935F-5723C826C530}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E347BC-90D4-4BA6-B720-B916A9BFB155}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2711,47 +2720,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,45 +2767,41 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,100 +2810,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>334</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>354578</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
-        <v>167</v>
-      </c>
-      <c r="I22" s="7">
-        <v>171575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>526154</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2906,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>117727</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
-        <v>48</v>
-      </c>
-      <c r="I23" s="7">
-        <v>48546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>166273</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,63 +2955,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>334</v>
+      </c>
+      <c r="D25" s="7">
+        <v>354578</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7">
+        <v>167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>171575</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="7">
+        <v>501</v>
+      </c>
+      <c r="N25" s="7">
+        <v>526154</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>116</v>
+      </c>
+      <c r="D26" s="7">
+        <v>117727</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7">
+        <v>48</v>
+      </c>
+      <c r="I26" s="7">
+        <v>48546</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="7">
+        <v>164</v>
+      </c>
+      <c r="N26" s="7">
+        <v>166273</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3031,8 +3178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF3F358-9108-446D-BF12-32BF69C113A1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4211912-F284-4739-9BBB-1C8682FC3890}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3048,7 +3195,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3155,13 +3302,13 @@
         <v>7524</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3170,13 +3317,13 @@
         <v>8078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3185,13 +3332,13 @@
         <v>15602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3353,13 @@
         <v>2803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3221,13 +3368,13 @@
         <v>1978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3236,13 +3383,13 @@
         <v>4781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3457,13 @@
         <v>66235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3325,13 +3472,13 @@
         <v>52134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3340,13 +3487,13 @@
         <v>118369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3508,13 @@
         <v>20053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3376,13 +3523,13 @@
         <v>13936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3391,13 +3538,13 @@
         <v>33989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3612,13 @@
         <v>68381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3480,13 +3627,13 @@
         <v>57232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -3495,13 +3642,13 @@
         <v>125613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3663,13 @@
         <v>29495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3531,13 +3678,13 @@
         <v>15399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -3546,13 +3693,13 @@
         <v>44894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3767,13 @@
         <v>69165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3635,13 +3782,13 @@
         <v>26695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3650,13 +3797,13 @@
         <v>95861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3818,13 @@
         <v>21001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3686,13 +3833,13 @@
         <v>13626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -3701,13 +3848,13 @@
         <v>34626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3922,13 @@
         <v>32070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3790,13 +3937,13 @@
         <v>22523</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -3805,13 +3952,13 @@
         <v>54593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3973,13 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3841,13 +3988,13 @@
         <v>2059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3856,13 +4003,13 @@
         <v>12886</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,39 +4075,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,39 +4120,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,92 +4165,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>234</v>
-      </c>
-      <c r="D22" s="7">
-        <v>243376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>152</v>
-      </c>
-      <c r="I22" s="7">
-        <v>166663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>386</v>
-      </c>
-      <c r="N22" s="7">
-        <v>410038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,49 +4253,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>80</v>
-      </c>
-      <c r="D23" s="7">
-        <v>84178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>44</v>
-      </c>
-      <c r="I23" s="7">
-        <v>46998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>124</v>
-      </c>
-      <c r="N23" s="7">
-        <v>131176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,63 +4298,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>234</v>
+      </c>
+      <c r="D25" s="7">
+        <v>243376</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="7">
+        <v>152</v>
+      </c>
+      <c r="I25" s="7">
+        <v>166663</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" s="7">
+        <v>386</v>
+      </c>
+      <c r="N25" s="7">
+        <v>410038</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>80</v>
+      </c>
+      <c r="D26" s="7">
+        <v>84178</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="7">
+        <v>44</v>
+      </c>
+      <c r="I26" s="7">
+        <v>46998</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" s="7">
+        <v>124</v>
+      </c>
+      <c r="N26" s="7">
+        <v>131176</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>314</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>327554</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>196</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>213661</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>541214</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4232,8 +4517,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6077C9D-C204-4FB8-B483-8B07479FE544}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF07A5-C70E-421B-A4F2-C44B0D4C3C39}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4249,7 +4534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4641,13 @@
         <v>9275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4371,13 +4656,13 @@
         <v>10811</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4386,13 +4671,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4692,13 @@
         <v>7876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4422,13 +4707,13 @@
         <v>832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4437,13 +4722,13 @@
         <v>8708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4796,13 @@
         <v>66705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -4526,13 +4811,13 @@
         <v>42536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -4541,13 +4826,13 @@
         <v>109241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4847,13 @@
         <v>14867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4577,13 +4862,13 @@
         <v>3755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -4592,13 +4877,13 @@
         <v>18622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4951,13 @@
         <v>88363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4681,13 +4966,13 @@
         <v>59022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4696,13 +4981,13 @@
         <v>147385</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +5002,13 @@
         <v>24760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4732,13 +5017,13 @@
         <v>12436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4747,13 +5032,13 @@
         <v>37196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5106,13 @@
         <v>60080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4836,13 +5121,13 @@
         <v>45021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4851,13 +5136,13 @@
         <v>105101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +5157,13 @@
         <v>31348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4887,13 +5172,13 @@
         <v>11086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4902,13 +5187,13 @@
         <v>42434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5261,13 @@
         <v>35439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4991,13 +5276,13 @@
         <v>26366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -5006,13 +5291,13 @@
         <v>61804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5312,13 @@
         <v>9409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5042,13 +5327,13 @@
         <v>4433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5057,13 +5342,13 @@
         <v>13842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,26 +5416,26 @@
         <v>934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5159,13 +5444,13 @@
         <v>934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,26 +5465,26 @@
         <v>946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5208,13 +5493,13 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5527,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5268,55 +5553,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>241</v>
-      </c>
-      <c r="D22" s="7">
-        <v>260795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>176</v>
-      </c>
-      <c r="I22" s="7">
-        <v>183756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>417</v>
-      </c>
-      <c r="N22" s="7">
-        <v>444551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,49 +5604,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>81</v>
-      </c>
-      <c r="D23" s="7">
-        <v>89206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>31</v>
-      </c>
-      <c r="I23" s="7">
-        <v>32542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>112</v>
-      </c>
-      <c r="N23" s="7">
-        <v>121748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,63 +5649,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>241</v>
+      </c>
+      <c r="D25" s="7">
+        <v>260795</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" s="7">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>183756</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M25" s="7">
+        <v>417</v>
+      </c>
+      <c r="N25" s="7">
+        <v>444551</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7">
+        <v>89206</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H26" s="7">
+        <v>31</v>
+      </c>
+      <c r="I26" s="7">
+        <v>32542</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M26" s="7">
+        <v>112</v>
+      </c>
+      <c r="N26" s="7">
+        <v>121748</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5445,8 +5868,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B774E08D-2550-4493-A812-AB9CB582AC79}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51527A54-B3B9-4C98-9C39-E391E28A55C4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5462,7 +5885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5566,13 +5989,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -5581,31 +6004,31 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>11885</v>
+        <v>10276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>18283</v>
+        <v>16265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,43 +6043,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>5152</v>
+        <v>5068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>5152</v>
+        <v>5068</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,7 +6091,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5683,7 +6106,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5698,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5721,46 +6144,46 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>48357</v>
+        <v>48645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>35942</v>
+        <v>31980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>84300</v>
+        <v>80625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,46 +6195,46 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>10075</v>
+        <v>10429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>19955</v>
+        <v>17969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>30029</v>
+        <v>28397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,7 +6246,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5838,7 +6261,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5853,7 +6276,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5876,46 +6299,46 @@
         <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>75825</v>
+        <v>73275</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>64379</v>
+        <v>59674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
       </c>
       <c r="N10" s="7">
-        <v>140204</v>
+        <v>132950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,46 +6350,46 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>22915</v>
+        <v>22256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>16671</v>
+        <v>15878</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
       </c>
       <c r="N11" s="7">
-        <v>39586</v>
+        <v>38134</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +6401,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5993,7 +6416,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6008,7 +6431,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6031,46 +6454,46 @@
         <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>76525</v>
+        <v>71313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
       </c>
       <c r="I13" s="7">
-        <v>111619</v>
+        <v>126586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
       </c>
       <c r="N13" s="7">
-        <v>188146</v>
+        <v>197899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,46 +6505,46 @@
         <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>38069</v>
+        <v>37240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>32412</v>
+        <v>28363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>70480</v>
+        <v>65603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6556,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6148,7 +6571,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6163,7 +6586,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6186,22 +6609,22 @@
         <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>48455</v>
+        <v>45575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>49123</v>
+        <v>45396</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>417</v>
@@ -6216,7 +6639,7 @@
         <v>136</v>
       </c>
       <c r="N16" s="7">
-        <v>97577</v>
+        <v>90971</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>420</v>
@@ -6237,46 +6660,46 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>23308</v>
+        <v>21861</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>10942</v>
+        <v>10111</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>34251</v>
+        <v>31972</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,7 +6711,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6303,7 +6726,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6318,7 +6741,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6341,37 +6764,37 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>2289</v>
+        <v>2181</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>433</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2520</v>
+        <v>2348</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>4809</v>
+        <v>4529</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>435</v>
@@ -6380,7 +6803,7 @@
         <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6815,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>801</v>
+        <v>742</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>438</v>
@@ -6407,31 +6830,31 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>1412</v>
+        <v>1307</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6866,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6458,7 +6881,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6473,7 +6896,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6487,55 +6910,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>248</v>
-      </c>
-      <c r="D22" s="7">
-        <v>257851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>374</v>
-      </c>
-      <c r="I22" s="7">
-        <v>275468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>622</v>
-      </c>
-      <c r="N22" s="7">
-        <v>533318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +6961,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>90</v>
-      </c>
-      <c r="D23" s="7">
-        <v>95167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>450</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>100</v>
-      </c>
-      <c r="I23" s="7">
-        <v>85743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>451</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>190</v>
-      </c>
-      <c r="N23" s="7">
-        <v>180910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,63 +7006,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>248</v>
+      </c>
+      <c r="D25" s="7">
+        <v>246977</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="7">
+        <v>374</v>
+      </c>
+      <c r="I25" s="7">
+        <v>276261</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M25" s="7">
+        <v>622</v>
+      </c>
+      <c r="N25" s="7">
+        <v>523238</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>90</v>
+      </c>
+      <c r="D26" s="7">
+        <v>92528</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H26" s="7">
+        <v>100</v>
+      </c>
+      <c r="I26" s="7">
+        <v>77954</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="M26" s="7">
+        <v>190</v>
+      </c>
+      <c r="N26" s="7">
+        <v>170482</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
